--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E077AA5-7480-48A8-9F0F-6F48B7D3BD89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E849EC-41FB-46AF-B13E-C6059F626C73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2247,9 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2513,7 +2511,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>35</v>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E849EC-41FB-46AF-B13E-C6059F626C73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EE3D90-B29A-4CC4-A572-E9C547B89504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Explanation</t>
     <phoneticPr fontId="6"/>
@@ -49,10 +49,6 @@
   <si>
     <t>(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Run</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Run</t>
@@ -915,13 +911,20 @@
   <si>
     <t>Checks\UndocumentedDefaultType.xaml</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,23 +980,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1055,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1084,23 +1072,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1118,868 +1094,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$12" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$3" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$5" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$6" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$7" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$10" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>733425</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>638175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>504825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>752475</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>685800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>923925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>752475</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>990600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>809625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>1047750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>847725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>809625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>895350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>1133475</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>1085850</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>1323975</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>447675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>685800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2244,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -2267,14 +1381,14 @@
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>46</v>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -2284,505 +1398,260 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="93.75">
-      <c r="A2" s="10" t="b">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="93.75">
-      <c r="A3" s="10" t="b">
-        <v>1</v>
+      <c r="A3" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="112.5">
-      <c r="A4" s="10" t="b">
-        <v>1</v>
+      <c r="A4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="131.25">
-      <c r="A5" s="11" t="b">
-        <v>1</v>
+      <c r="A5" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="131.25">
-      <c r="A6" s="11" t="b">
-        <v>1</v>
+      <c r="A6" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="131.25">
-      <c r="A7" s="10" t="b">
-        <v>1</v>
+      <c r="A7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="150">
-      <c r="A8" s="10" t="b">
-        <v>1</v>
+      <c r="A8" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="150">
-      <c r="A9" s="10" t="b">
-        <v>1</v>
+      <c r="A9" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="206.25">
-      <c r="A10" s="10" t="b">
-        <v>1</v>
+      <c r="A10" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="187.5">
-      <c r="A11" s="15" t="b">
-        <v>1</v>
+      <c r="A11" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="112.5">
-      <c r="A12" s="15" t="b">
-        <v>1</v>
+      <c r="A12" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId4" name="Check Box 5">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>733425</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Check Box 7">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>638175</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId6" name="Check Box 9">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>504825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>752475</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>257175</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>685800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>923925</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId8" name="Check Box 12">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>752475</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>428625</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>990600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId9" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>257175</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>809625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>1047750</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId10" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>609600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>847725</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId11" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>571500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>809625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId12" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>257175</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>895350</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>1133475</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId13" name="Check Box 18">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>1085850</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>1323975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId14" name="Check Box 20">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>238125</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2797,10 +1666,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -2808,8 +1677,8 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>46</v>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -2819,59 +1688,34 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="112.5">
-      <c r="A2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>36</v>
+      <c r="A2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId4" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>447675</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>428625</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>685800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EE3D90-B29A-4CC4-A572-E9C547B89504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C725E41-01A1-459A-928F-653B2031FB23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Explanation</t>
     <phoneticPr fontId="6"/>
@@ -918,6 +918,54 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Variable scope is not the innermost</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Variables should be defined in the innermost scope possible to improve the workflow's organization and avoid unintended usage in different scopes.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Restrict the scope of the variable.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\VariableMinimumScope\VariableMinimumScope.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\VariableOverridesVariable.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Although it is technically possible for a variable and an argument have the same name, it can lead to confusion about which is used and make the process of debugging more difficult.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Although it is technically possible for two variables to have the same name, it can lead to confusion about which is used and make the process of debugging more difficult.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Define unique names for variables, even if they are in different scopes.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Define unique names for variables and arguments.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\VariableOverridesArgument.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Variable overrides argument</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Variable overrides variable</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1359,9 +1407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -1634,10 +1684,73 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:7" ht="56.25">
+      <c r="A13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75">
+      <c r="A14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75">
+      <c r="A15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C725E41-01A1-459A-928F-653B2031FB23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C71E11-DF4E-4F54-AEEF-76561904CCDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Explanation</t>
     <phoneticPr fontId="6"/>
@@ -966,6 +966,9 @@
   <si>
     <t>Variable overrides variable</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1131,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1409,19 +1412,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.58203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1447,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="93.75">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="90">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="93.75">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="72">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="112.5">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="108">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="131.25">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="126">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="131.25">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="126">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="131.25">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="126">
       <c r="A7" s="9" t="s">
         <v>61</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="150">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="144">
       <c r="A8" s="9" t="s">
         <v>61</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="150">
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="144">
       <c r="A9" s="9" t="s">
         <v>61</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="206.25">
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="180">
       <c r="A10" s="9" t="s">
         <v>61</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="187.5">
+    <row r="11" spans="1:7" ht="180">
       <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="112.5">
+    <row r="12" spans="1:7" ht="108">
       <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
@@ -1684,9 +1685,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="56.25">
+    <row r="13" spans="1:7" ht="54">
       <c r="A13" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>62</v>
@@ -1705,7 +1706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75">
+    <row r="14" spans="1:7" ht="54">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="75">
+    <row r="15" spans="1:7" ht="72">
       <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
@@ -1767,14 +1768,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="49.875" customWidth="1"/>
-    <col min="7" max="7" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -1800,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="112.5">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="108">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C71E11-DF4E-4F54-AEEF-76561904CCDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D78E6-00D3-41FD-82D8-E230C388257E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -23,39 +23,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
-    <t>Explanation</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Suggestion</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Check Filename</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Argument</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Issue</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Issue</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
@@ -101,7 +74,7 @@
     <rPh sb="110" eb="112">
       <t>ハアク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>最上位階層のアクティビティには、ワークフローの概要を注釈することを推奨します。</t>
@@ -120,7 +93,7 @@
     <rPh sb="33" eb="35">
       <t>スイショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>注釈の欠落</t>
@@ -130,14 +103,14 @@
     <rPh sb="3" eb="5">
       <t>ケツラク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>スクリーンショットの欠落</t>
     <rPh sb="10" eb="12">
       <t>ケツラク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>スクリーンショットは、アクティビティがどの要素に対してどういった処理を実行するか確認するのに有効です。各スクリーンショットは、プロジェクト内の「.screenshots」フォルダに、保存されている必要があります。</t>
@@ -171,7 +144,7 @@
     <rPh sb="98" eb="100">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>有効なスクリーンショットを参照してください。</t>
@@ -181,7 +154,7 @@
     <rPh sb="13" eb="15">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>注釈の無い待機（Delay）</t>
@@ -194,7 +167,7 @@
     <rPh sb="5" eb="7">
       <t>タイキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>待機（Delay）は、必要以上にロボットのパフォーマンスを低下させることがあるので、その使用は最小限にすることを推奨しています。UI同期の方法は、待機（Delay）以外の方法を含めて、こちらのページで紹介されています。https://studio.uipath.com/lang-ja/docs/ui-automation#section-ui-synchronization</t>
@@ -240,7 +213,7 @@
     <rPh sb="100" eb="102">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アプリケーションの状態変化を待つ方法として、待機（Delay）以外を検討してください。待機（Delay）が絶対に必要な状況の場合は、その理由を注釈に記載してください。</t>
@@ -280,14 +253,14 @@
     <rPh sb="74" eb="76">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>空のキャッチ（Catch）ブロック</t>
     <rPh sb="0" eb="1">
       <t>カラ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>例外のキャッチは、ただエラーメッセージを回避するためでなく、目的を持って行われるべきです。そのため、トライキャッチ（Try Catch）のキャッチブロックには、ログメッセージの出力を推奨しています。エラー処理に関する情報はこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/project-organization#section-error-handling</t>
@@ -324,7 +297,7 @@
     <rPh sb="119" eb="121">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>例外をキャッチした際に対応することがない場合でも、少なくともログメッセージを出力することを推奨します。</t>
@@ -349,7 +322,7 @@
     <rPh sb="45" eb="47">
       <t>スイショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>命名規則違反（変数）</t>
@@ -365,7 +338,7 @@
     <rPh sb="7" eb="9">
       <t>ヘンスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>命名規則違反（引数）</t>
@@ -381,7 +354,7 @@
     <rPh sb="7" eb="9">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>変数の命名は、ワークフローの保守性を維持するため、指定された命名規則を守る必要があります。こちらのチェックは、正規表現を引数として受け取り、それを守っているかどうかを確認する機能となります。命名規則に関してはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/workflow-design#section-naming-conventions</t>
@@ -451,14 +424,14 @@
     <rPh sb="112" eb="114">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>引数の命名は、ワークフローの保守性を維持するため、指定された命名規則を守る必要があります。こちらのチェックは、正規表現を引数として受け取り、それを守っているかどうかを確認する機能となります。命名規則に関してはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/workflow-design#section-naming-conventions</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>変数名は命名規則に従って命名してください。</t>
@@ -477,14 +450,14 @@
     <rPh sb="12" eb="14">
       <t>メイメイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>引数名は命名規則に従って命名してください。</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>idx属性値が大きいので、セレクターにidx属性以外の属性を追加することを検討してください。</t>
@@ -509,7 +482,7 @@
     <rPh sb="37" eb="39">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>セレクターのidx属性は、同じセレクターで取得できる要素を、要素の順序に基づいて判別するために使われます。この順序は、画面の要素が変わると、それに伴って変わってしまうことがあります。誤った要素を選択することを避けるため、idx属性の値はできるだけ小さい値となるようにセレクターを構築することを推奨します。こちらのチェックは、引数としてidx属性の閾値を受け取り、その値より大きいか確認しています。セレクターについてはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/ui-automation#section-selectors</t>
@@ -615,7 +588,7 @@
     <rPh sb="216" eb="218">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>セレクターのidx属性値が過大</t>
@@ -628,14 +601,14 @@
     <rPh sb="13" eb="15">
       <t>カダイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>不必要なシーケンス（Sequence）やフローチャート（Flowchart）</t>
     <rPh sb="0" eb="3">
       <t>フヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ワークフロー上において、シーケンスは特定の目的を果たすために使用されます。そのため、空のシーケンスは、ワークフローの可読性を低めるだけなので、使用されるべきではありません。また、内部にアクティビティを１つしか含まないシーケンスやフローチャートは、基本的に削除してもワークフローの動作に影響を及ぼしません。 シーケンスの削除には、 コンテキストメニューのシーケンスを削除（Remove Sequence）オプションを使用することができます。 (https://studio.uipath.com/lang-ja/docs/the-user-interface#section-the-context-menu).</t>
@@ -696,7 +669,7 @@
     <rPh sb="207" eb="209">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>実行されないアクティビティの削除を検討してください。</t>
@@ -709,7 +682,7 @@
     <rPh sb="17" eb="19">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>空の、もしくは、内部にアクティビティを1つしか含まないシーケンス・フローチャートの削除を検討してください。</t>
@@ -728,7 +701,7 @@
     <rPh sb="44" eb="46">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ワークフロー上には、実行時に必要なアクティビティのみ配置されるべきです。コメントアウトされたアクティビティや、フローチャート上でどのノードにも接続されていないアクティビティは削除することを推奨します。コメントアウトしたアクティビティを保持することが必要な場合は、その理由を注釈してください。</t>
@@ -774,7 +747,7 @@
     <rPh sb="136" eb="138">
       <t>チュウシャク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プロジェクト設定ファイル (project.json) の欠落</t>
@@ -784,7 +757,7 @@
     <rPh sb="29" eb="31">
       <t>ケツラク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>project.jsonファイルには、プロジェクトに関する重要な情報が含まれており、UiPathStudioでプロジェクトを読み込む際に使用されています。 project.jsonファイルについてはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/about-the-projectjson-file</t>
@@ -815,180 +788,380 @@
     <rPh sb="107" eb="109">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>project.jsonファイルを作成もしくはインポートしてください。</t>
     <rPh sb="17" eb="19">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Undocumented default click</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Since they do not depend on the mouse driver, the properties SimulateClick and SendWindowMessages provide a faster and more robust way to perform clicks, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Use SimulateClick or SendWindowMessages if the target control supports it.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Undocumented default type</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Since they do not depend on the keyboard driver, the properties SimulateType and SendWindowMessages provide a faster and more robust way to perform typing actions, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Use SimulateType or SendWindowMessages if the target control supports it.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Undocumented unreachable activities</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Fix</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Double check</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\ProjectJsonConfigurationFile.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\MissingWorkflowAnnotation.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\MissingScreenshot.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\UndocumentedDelay.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\EmptyCatchBlock.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\VariableNamingConvention.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\ArgumentNamingConvention.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\UndocumentedDefaultClick.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\UnnecessarySequenceOrFlowchart.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\UndocumentedUnreachableActivities.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\LargeIdxInSelector.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\UndocumentedDefaultType.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Variable scope is not the innermost</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Variables should be defined in the innermost scope possible to improve the workflow's organization and avoid unintended usage in different scopes.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Restrict the scope of the variable.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Checks\VariableMinimumScope\VariableMinimumScope.xaml</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\VariableOverridesVariable.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Although it is technically possible for a variable and an argument have the same name, it can lead to confusion about which is used and make the process of debugging more difficult.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Although it is technically possible for two variables to have the same name, it can lead to confusion about which is used and make the process of debugging more difficult.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Define unique names for variables, even if they are in different scopes.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Define unique names for variables and arguments.</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\VariableOverridesArgument.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Variable overrides argument</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Variable overrides variable</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>注釈の無いデフォルトのクリック（Click）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クリックをシミュレート（SimulateClick）やウィンドウメッセージを送信（SendWindowMessages）は、マウスドライバーを使用しないため、より高速で安定したクリックを実行することができます。そのため、これらオプションを使用して正常に動作する場合は、常に使用することを推奨します。両オプションとも正常に動かない場合は、その旨を注釈に記入しデフォルトのクリックを使用してください。両オプションについてはこちらで紹介されています。 https://studio.uipath.com/lang-ja/docs/ui-automation#section-input-methods</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常に動作しない場合を除き、クリックをシミュレート（SimulateClick）もしくはウィンドウメッセージを送信（SendWindowMessages）を使用することを推奨します。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>注釈の無いデフォルトの入力（Type）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力をシミュレート（SimulateType）ウィンドウメッセージを送信（SendWindowMessages）は、キーボードドライバーを使用しないため、より高速で安定した入力を実行することができます。そのため、これらのオプションを使用して正常に動作する場合は、常に使用することを推奨します。 両オプションとも正常に動かない場合は、その旨を注釈に記入しデフォルトの入力を使用してください。両オプションについてはこちらで紹介されています。 https://studio.uipath.com/lang-ja/docs/ui-automation#section-input-methods</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常に動作しない場合を除き、入力をシミュレート（SimulateType）もしくはウィンドウメッセージを送信（SendWindowMessages）を使用することを推奨します。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>注釈の無い実行されないアクティビティ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>必要最小限でない変数のスコープ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数のスコープは必要最小限の範囲にするべきです。ワークフローの構成の改善や、変数が想定外の利用をされるのを防ぐことにつながります。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ヒツヨウサイショウゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数のスコープを最小限にしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイショウゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>複数の変数が同じ変数名を持つことは技術的に可能ですが、避けるべきです。どちらの変数が使われているかわからなくなり、デバッグが煩雑になってしまいます。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ハンザツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数名の重複</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数名と引数名の重複</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数と引数が同じ名前を持つことは技術的に可能ですが、避けるべきです。どちらが使われているかわからなくなり、デバッグが煩雑になってしまいます。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハンザツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数と引数には重複しない名前を定義してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変数には重複しない名前を定義してください。異なるスコープであっても変数名の重複を避けてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>事象</t>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チェックファイル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1090,20 +1263,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1114,19 +1281,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1426,330 +1593,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="90">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="72">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="108">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="126">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="126">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="126">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="180">
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="180">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="180">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="90">
-      <c r="A2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="72">
-      <c r="A3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="108">
-      <c r="A4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="126">
-      <c r="A5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="126">
-      <c r="A6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="126">
-      <c r="A7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="144">
-      <c r="A8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="144">
-      <c r="A9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="180">
-      <c r="A10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="180">
-      <c r="A11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="108">
-      <c r="A12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="54">
-      <c r="A13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>64</v>
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="72">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>70</v>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
@@ -1764,9 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1779,51 +1944,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>8</v>
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="108">
-      <c r="A2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="108">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
       <formula1>"Yes, No"</formula1>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D78E6-00D3-41FD-82D8-E230C388257E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB337A47-2ABB-4B7E-A794-DD7A7CD3B14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="4"/>
@@ -1141,15 +1141,17 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>確認</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>対応</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>修正</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
@@ -1606,7 +1610,7 @@
         <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>69</v>
@@ -1757,7 +1761,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>50</v>
@@ -1778,7 +1782,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>53</v>
@@ -1801,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
@@ -1822,7 +1826,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -1843,7 +1847,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>27</v>
@@ -1864,7 +1868,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>57</v>
@@ -1885,7 +1889,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>59</v>
@@ -1906,7 +1910,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>62</v>
@@ -1917,9 +1921,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+      <formula1>"修正, 確認"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1957,7 +1964,7 @@
         <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>69</v>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB337A47-2ABB-4B7E-A794-DD7A7CD3B14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F037B-73E9-44AF-8218-91917A157D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="4"/>
@@ -1152,6 +1152,93 @@
   </si>
   <si>
     <t>修正</t>
+  </si>
+  <si>
+    <t>Deeply nested activities</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\DeeplyNestedActivities.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>It is usually more difficult to see and understand workflows that have too many deeply nested activities, so it is recommended to avoid deeply nested structures. Instead, it might be better to separate the workflow into smaller ones and use the Invoke Workflow File activity to call them.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Consider dividing the workflow into smaller components to avoid deeply nested structures.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Unused variables</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\UnusedVariables.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Workflows should only have variables and arguments that are necessary for its execution. Unused variables and arguments make the project more difficult to understand and should be removed. For removing all unsed variables, use the button "Remove Unused Variables" in UiPath Studio (https://studio.uipath.com/docs/managing-variables#section-removing-variables)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Remove variables and arguments that are not being used.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Open Browser not being used</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\OpenApplicationBrowser.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The Open Browser activity provides a convenient way to open a browser tab or window, and it also serves as a container for activities related to web automation. For this reason, it should be the preferred way to work with browsers, instead of Open Application or Start Process.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Consider the use of Open Browser instead of Open Application or Start Process.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hotkey without selector</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\HotkeyWithoutSelector.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Send Hotkey activities without selector can be intercepted by any application that comes to the foreground (for example, Windows notifications and antivirus popups), which will prevent the intended execution. For this reason, it is recommended to use selectors or include them in containers that have selectors (for example, Attach Window or Attach Browser).</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Specify a selector when using Send Hotkey activity or include it inside a container.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Repeated display names for activities</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\RepeatedActivitiyName.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The names of the activities should give a clear idea of how it is being used. Although the default names usually provide a good description, sometimes they are too generic, so it is recommended to add more information when the context is not clear. This check looks for activities that have the same name, which might indicate that the same generic name is used multiple times. The check accepts an argument which is the threshold of how many activities can have the same name.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Check if it could be easier to understand what the activity does by adding a more descriptive title.</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1579,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -1919,14 +2006,145 @@
         <v>63</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="108">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="126">
+      <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="126">
+      <c r="A20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="162">
+      <c r="A21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E21" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+      <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F037B-73E9-44AF-8218-91917A157D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F49EDD-16D6-441B-A4FD-D794203CBF61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -1387,7 +1387,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1669,18 +1669,18 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.58203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="90">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="72">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="108">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="126">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="126">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="126">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="180">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="180">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="180">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="180">
+    <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="108">
+    <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="54">
+    <row r="13" spans="1:7" ht="56.25">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54">
+    <row r="14" spans="1:7" ht="56.25">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="54">
+    <row r="15" spans="1:7" ht="56.25">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -2006,9 +2006,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="108">
+    <row r="16" spans="1:7" ht="112.5">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>76</v>
@@ -2029,7 +2029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="126">
+    <row r="17" spans="1:7" ht="131.25">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90">
+    <row r="18" spans="1:7" ht="93.75">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90">
+    <row r="19" spans="1:7" ht="93.75">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="126">
+    <row r="20" spans="1:7" ht="150">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="162">
+    <row r="21" spans="1:7" ht="168.75">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -2158,14 +2158,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" customWidth="1"/>
-    <col min="7" max="7" width="40.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="5" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="49.875" customWidth="1"/>
+    <col min="7" max="7" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2191,7 +2191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="108">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F49EDD-16D6-441B-A4FD-D794203CBF61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AAFB5-1AFF-48AE-9D08-6059D77D5EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
@@ -74,7 +74,7 @@
     <rPh sb="110" eb="112">
       <t>ハアク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>最上位階層のアクティビティには、ワークフローの概要を注釈することを推奨します。</t>
@@ -93,7 +93,7 @@
     <rPh sb="33" eb="35">
       <t>スイショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>注釈の欠落</t>
@@ -103,14 +103,14 @@
     <rPh sb="3" eb="5">
       <t>ケツラク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スクリーンショットの欠落</t>
     <rPh sb="10" eb="12">
       <t>ケツラク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スクリーンショットは、アクティビティがどの要素に対してどういった処理を実行するか確認するのに有効です。各スクリーンショットは、プロジェクト内の「.screenshots」フォルダに、保存されている必要があります。</t>
@@ -144,7 +144,7 @@
     <rPh sb="98" eb="100">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>有効なスクリーンショットを参照してください。</t>
@@ -154,7 +154,7 @@
     <rPh sb="13" eb="15">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>注釈の無い待機（Delay）</t>
@@ -167,7 +167,7 @@
     <rPh sb="5" eb="7">
       <t>タイキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>待機（Delay）は、必要以上にロボットのパフォーマンスを低下させることがあるので、その使用は最小限にすることを推奨しています。UI同期の方法は、待機（Delay）以外の方法を含めて、こちらのページで紹介されています。https://studio.uipath.com/lang-ja/docs/ui-automation#section-ui-synchronization</t>
@@ -213,7 +213,7 @@
     <rPh sb="100" eb="102">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アプリケーションの状態変化を待つ方法として、待機（Delay）以外を検討してください。待機（Delay）が絶対に必要な状況の場合は、その理由を注釈に記載してください。</t>
@@ -253,14 +253,14 @@
     <rPh sb="74" eb="76">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>空のキャッチ（Catch）ブロック</t>
     <rPh sb="0" eb="1">
       <t>カラ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>例外のキャッチは、ただエラーメッセージを回避するためでなく、目的を持って行われるべきです。そのため、トライキャッチ（Try Catch）のキャッチブロックには、ログメッセージの出力を推奨しています。エラー処理に関する情報はこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/project-organization#section-error-handling</t>
@@ -297,7 +297,7 @@
     <rPh sb="119" eb="121">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>例外をキャッチした際に対応することがない場合でも、少なくともログメッセージを出力することを推奨します。</t>
@@ -322,7 +322,7 @@
     <rPh sb="45" eb="47">
       <t>スイショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>命名規則違反（変数）</t>
@@ -338,7 +338,7 @@
     <rPh sb="7" eb="9">
       <t>ヘンスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>命名規則違反（引数）</t>
@@ -354,7 +354,7 @@
     <rPh sb="7" eb="9">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数の命名は、ワークフローの保守性を維持するため、指定された命名規則を守る必要があります。こちらのチェックは、正規表現を引数として受け取り、それを守っているかどうかを確認する機能となります。命名規則に関してはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/workflow-design#section-naming-conventions</t>
@@ -424,14 +424,14 @@
     <rPh sb="112" eb="114">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>引数の命名は、ワークフローの保守性を維持するため、指定された命名規則を守る必要があります。こちらのチェックは、正規表現を引数として受け取り、それを守っているかどうかを確認する機能となります。命名規則に関してはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/workflow-design#section-naming-conventions</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数名は命名規則に従って命名してください。</t>
@@ -450,14 +450,14 @@
     <rPh sb="12" eb="14">
       <t>メイメイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>引数名は命名規則に従って命名してください。</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>idx属性値が大きいので、セレクターにidx属性以外の属性を追加することを検討してください。</t>
@@ -482,7 +482,7 @@
     <rPh sb="37" eb="39">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>セレクターのidx属性は、同じセレクターで取得できる要素を、要素の順序に基づいて判別するために使われます。この順序は、画面の要素が変わると、それに伴って変わってしまうことがあります。誤った要素を選択することを避けるため、idx属性の値はできるだけ小さい値となるようにセレクターを構築することを推奨します。こちらのチェックは、引数としてidx属性の閾値を受け取り、その値より大きいか確認しています。セレクターについてはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/ui-automation#section-selectors</t>
@@ -588,7 +588,7 @@
     <rPh sb="216" eb="218">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>セレクターのidx属性値が過大</t>
@@ -601,14 +601,14 @@
     <rPh sb="13" eb="15">
       <t>カダイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>不必要なシーケンス（Sequence）やフローチャート（Flowchart）</t>
     <rPh sb="0" eb="3">
       <t>フヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ワークフロー上において、シーケンスは特定の目的を果たすために使用されます。そのため、空のシーケンスは、ワークフローの可読性を低めるだけなので、使用されるべきではありません。また、内部にアクティビティを１つしか含まないシーケンスやフローチャートは、基本的に削除してもワークフローの動作に影響を及ぼしません。 シーケンスの削除には、 コンテキストメニューのシーケンスを削除（Remove Sequence）オプションを使用することができます。 (https://studio.uipath.com/lang-ja/docs/the-user-interface#section-the-context-menu).</t>
@@ -669,7 +669,7 @@
     <rPh sb="207" eb="209">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>実行されないアクティビティの削除を検討してください。</t>
@@ -682,7 +682,7 @@
     <rPh sb="17" eb="19">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>空の、もしくは、内部にアクティビティを1つしか含まないシーケンス・フローチャートの削除を検討してください。</t>
@@ -701,7 +701,7 @@
     <rPh sb="44" eb="46">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ワークフロー上には、実行時に必要なアクティビティのみ配置されるべきです。コメントアウトされたアクティビティや、フローチャート上でどのノードにも接続されていないアクティビティは削除することを推奨します。コメントアウトしたアクティビティを保持することが必要な場合は、その理由を注釈してください。</t>
@@ -747,7 +747,7 @@
     <rPh sb="136" eb="138">
       <t>チュウシャク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロジェクト設定ファイル (project.json) の欠落</t>
@@ -757,7 +757,7 @@
     <rPh sb="29" eb="31">
       <t>ケツラク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>project.jsonファイルには、プロジェクトに関する重要な情報が含まれており、UiPathStudioでプロジェクトを読み込む際に使用されています。 project.jsonファイルについてはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/about-the-projectjson-file</t>
@@ -788,112 +788,112 @@
     <rPh sb="107" eb="109">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>project.jsonファイルを作成もしくはインポートしてください。</t>
     <rPh sb="17" eb="19">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\ProjectJsonConfigurationFile.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\MissingWorkflowAnnotation.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\MissingScreenshot.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\UndocumentedDelay.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\EmptyCatchBlock.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\VariableNamingConvention.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\ArgumentNamingConvention.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\UndocumentedDefaultClick.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\UnnecessarySequenceOrFlowchart.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\UndocumentedUnreachableActivities.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\LargeIdxInSelector.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\UndocumentedDefaultType.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Checks\VariableMinimumScope\VariableMinimumScope.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\VariableOverridesVariable.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Checks\VariableOverridesArgument.xaml</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
     <t>注釈の無いデフォルトのクリック（Click）</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>クリックをシミュレート（SimulateClick）やウィンドウメッセージを送信（SendWindowMessages）は、マウスドライバーを使用しないため、より高速で安定したクリックを実行することができます。そのため、これらオプションを使用して正常に動作する場合は、常に使用することを推奨します。両オプションとも正常に動かない場合は、その旨を注釈に記入しデフォルトのクリックを使用してください。両オプションについてはこちらで紹介されています。 https://studio.uipath.com/lang-ja/docs/ui-automation#section-input-methods</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>正常に動作しない場合を除き、クリックをシミュレート（SimulateClick）もしくはウィンドウメッセージを送信（SendWindowMessages）を使用することを推奨します。</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>注釈の無いデフォルトの入力（Type）</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>入力をシミュレート（SimulateType）ウィンドウメッセージを送信（SendWindowMessages）は、キーボードドライバーを使用しないため、より高速で安定した入力を実行することができます。そのため、これらのオプションを使用して正常に動作する場合は、常に使用することを推奨します。 両オプションとも正常に動かない場合は、その旨を注釈に記入しデフォルトの入力を使用してください。両オプションについてはこちらで紹介されています。 https://studio.uipath.com/lang-ja/docs/ui-automation#section-input-methods</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>正常に動作しない場合を除き、入力をシミュレート（SimulateType）もしくはウィンドウメッセージを送信（SendWindowMessages）を使用することを推奨します。</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>注釈の無い実行されないアクティビティ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>必要最小限でない変数のスコープ</t>
@@ -906,7 +906,7 @@
     <rPh sb="8" eb="10">
       <t>ヘンスウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数のスコープは必要最小限の範囲にするべきです。ワークフローの構成の改善や、変数が想定外の利用をされるのを防ぐことにつながります。</t>
@@ -940,7 +940,7 @@
     <rPh sb="53" eb="54">
       <t>フセ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数のスコープを最小限にしてください。</t>
@@ -950,7 +950,7 @@
     <rPh sb="8" eb="11">
       <t>サイショウゲン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>複数の変数が同じ変数名を持つことは技術的に可能ですが、避けるべきです。どちらの変数が使われているかわからなくなり、デバッグが煩雑になってしまいます。</t>
@@ -987,7 +987,7 @@
     <rPh sb="62" eb="64">
       <t>ハンザツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数名の重複</t>
@@ -997,7 +997,7 @@
     <rPh sb="4" eb="6">
       <t>チョウフク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数名と引数名の重複</t>
@@ -1013,7 +1013,7 @@
     <rPh sb="8" eb="10">
       <t>チョウフク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数と引数が同じ名前を持つことは技術的に可能ですが、避けるべきです。どちらが使われているかわからなくなり、デバッグが煩雑になってしまいます。</t>
@@ -1044,7 +1044,7 @@
     <rPh sb="58" eb="60">
       <t>ハンザツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数と引数には重複しない名前を定義してください。</t>
@@ -1063,7 +1063,7 @@
     <rPh sb="15" eb="17">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>変数には重複しない名前を定義してください。異なるスコープであっても変数名の重複を避けてください。</t>
@@ -1088,169 +1088,602 @@
     <rPh sb="40" eb="41">
       <t>サ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>実行</t>
-    <rPh sb="0" eb="2">
+    <t>事象</t>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>チェックファイル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>修正</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Repeated display names for activities</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\RepeatedActivitiyName.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>The names of the activities should give a clear idea of how it is being used. Although the default names usually provide a good description, sometimes they are too generic, so it is recommended to add more information when the context is not clear. This check looks for activities that have the same name, which might indicate that the same generic name is used multiple times. The check accepts an argument which is the threshold of how many activities can have the same name.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Check if it could be easier to understand what the activity does by adding a more descriptive title.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>深過ぎるアクテビティ階層</t>
+    <rPh sb="0" eb="2">
+      <t>フカス</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\DeeplyNestedActivities.xaml</t>
+  </si>
+  <si>
+    <t>アクテビティの階層が深過ぎると、ワークフローを理解するのが難しくなるため、階層が深くならないように実装することを推奨します。階層が深くなりそうな場合は、ワークフローを複数の小さなワークフローに分割して、それらを ワークフローファイルを呼び出し（Invoke Workflow File）アクテビティで呼び出すと良いかもしれません。</t>
+    <rPh sb="7" eb="9">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アクテビティ階層が深過ぎるので、ワークフローの分割を検討してください。</t>
+    <rPh sb="6" eb="8">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フカス</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>未使用の変数</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\UnusedVariables.xaml</t>
+  </si>
+  <si>
+    <t>ワークフローには、実行時に必要な変数のみ含まれるべきです。未使用の変数が多くあると、ワークフローが理解しづらくなってしまうので、 削除することを推奨します。すべての未使用の変数を削除したい場合は、UiPath Studioの機能「未使用の変数を削除（Remove Unused Variables）」を利用してください。 (https://studio.uipath.com/lang-ja/docs/managing-variables#section-removing-variables)</t>
+    <rPh sb="9" eb="11">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>事象</t>
-    <rPh sb="0" eb="2">
-      <t>ジショウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>チェックファイル</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>未使用の変数を削除してください。</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ブラウザーを開く（Open Browser）の未使用</t>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\OpenApplicationBrowser.xaml</t>
+  </si>
+  <si>
+    <t>「ブラウザーを開く（Open Browser）」は、ブラウザタブやウィンドウを開くのに適したアクテビティです。また、WEBオートメーションに関するアクテビティのコンテナの役割を果たします。そのため、ブラウザーに関する自動化を実装する場合は、 「アプリケーションを開く（Open Application）」 や 「プロセスを開始（Start Process）」の代わりに、「ブラウザーを開く（Open Browser）」を使用することを推奨します。</t>
+    <rPh sb="39" eb="40">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="108" eb="111">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「アプリケーションを開く（Open Application）」 や 「プロセスを開始（Start Process）」の代わりに、「ブラウザーを開く（Open Browser）」の使用を検討してください。</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>セレクターの無いホットキー</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\HotkeyWithoutSelector.xaml</t>
+  </si>
+  <si>
+    <t>セレクターの無い「ホットキーを押下（Send Hotkey）」アクテビティは、 最前面に想定外のアプリケーションが表示された場合（例：ウィンドウズ通知 ・ウイルスソフトのポップアップ）、想定した挙動とならないことがあります。 そのため、セレクターを使用するか、セレクターを含むコンテナ（例：「ウィンドウにアタッチ」「ブラウザーにアタッチ」）内で使用することを推奨します。</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>サイゼンメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「ホットキーを押下（Send Hotkey）」は、セレクターを使用するか、セレクターを含むコンテナ内で使用してください。</t>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>複数の同じ表示名（Display name）</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\RepeatedActivitiyName.xaml</t>
+  </si>
+  <si>
+    <t>アクテビティの表示名（Display name）は、その処理内容が把握できるように付けられるべきです。デフォルトの表示名で十分なケースもありますが、時にはデフォルトのままでは曖昧となってしまう場合もあります。そういった場合には、表示名に情報を追加することを推奨します。 このチェックは、同じ表示名を持つアクテビティを抽出し、引数として、何個のアクテビティまで同じ表示名を持ってもよいか定める閾値を設定することができます。その値を超えたアクテビティは、レポートに出力されます。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>修正</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>対応</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>確認</t>
-  </si>
-  <si>
-    <t>修正</t>
-  </si>
-  <si>
-    <t>Deeply nested activities</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Checks\DeeplyNestedActivities.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Fix</t>
-  </si>
-  <si>
-    <t>It is usually more difficult to see and understand workflows that have too many deeply nested activities, so it is recommended to avoid deeply nested structures. Instead, it might be better to separate the workflow into smaller ones and use the Invoke Workflow File activity to call them.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Consider dividing the workflow into smaller components to avoid deeply nested structures.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Unused variables</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Checks\UnusedVariables.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Workflows should only have variables and arguments that are necessary for its execution. Unused variables and arguments make the project more difficult to understand and should be removed. For removing all unsed variables, use the button "Remove Unused Variables" in UiPath Studio (https://studio.uipath.com/docs/managing-variables#section-removing-variables)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Remove variables and arguments that are not being used.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Open Browser not being used</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Checks\OpenApplicationBrowser.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>The Open Browser activity provides a convenient way to open a browser tab or window, and it also serves as a container for activities related to web automation. For this reason, it should be the preferred way to work with browsers, instead of Open Application or Start Process.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Consider the use of Open Browser instead of Open Application or Start Process.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Hotkey without selector</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Checks\HotkeyWithoutSelector.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Send Hotkey activities without selector can be intercepted by any application that comes to the foreground (for example, Windows notifications and antivirus popups), which will prevent the intended execution. For this reason, it is recommended to use selectors or include them in containers that have selectors (for example, Attach Window or Attach Browser).</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Specify a selector when using Send Hotkey activity or include it inside a container.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Repeated display names for activities</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Checks\RepeatedActivitiyName.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>The names of the activities should give a clear idea of how it is being used. Although the default names usually provide a good description, sometimes they are too generic, so it is recommended to add more information when the context is not clear. This check looks for activities that have the same name, which might indicate that the same generic name is used multiple times. The check accepts an argument which is the threshold of how many activities can have the same name.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Check if it could be easier to understand what the activity does by adding a more descriptive title.</t>
-    <phoneticPr fontId="5"/>
+    <rPh sb="168" eb="170">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>イキチ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アクテビティの処理内容を理解しやすくするために表示名（Display name）に情報を追加することを検討してください。</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,15 +1783,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1373,22 +1809,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1668,19 +2114,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.58203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1706,7 +2150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="90">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
@@ -1727,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="72">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -1748,7 +2192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="108">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1769,7 +2213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="126">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -1790,7 +2234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="126">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -1813,7 +2257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="126">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1836,7 +2280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="180">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1857,7 +2301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="180">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -1878,7 +2322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="180">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +2345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="187.5">
+    <row r="11" spans="1:7" ht="180">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +2366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="112.5">
+    <row r="12" spans="1:7" ht="108">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1943,7 +2387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="56.25">
+    <row r="13" spans="1:7" ht="54">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -1964,7 +2408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56.25">
+    <row r="14" spans="1:7" ht="54">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1985,7 +2429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="56.25">
+    <row r="15" spans="1:7" ht="54">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -2006,136 +2450,136 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="112.5">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:7" ht="108">
+      <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="144">
+      <c r="A17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="144">
+      <c r="A18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="126">
+      <c r="A19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="162">
+      <c r="A20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="162">
+      <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="4">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="131.25">
-      <c r="A17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="93.75">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="93.75">
-      <c r="A19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="150">
-      <c r="A20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="168.75">
-      <c r="A21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
@@ -2158,14 +2602,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="49.875" customWidth="1"/>
-    <col min="7" max="7" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2191,7 +2635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="108">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -2213,7 +2657,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
       <formula1>"Yes, No"</formula1>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AAFB5-1AFF-48AE-9D08-6059D77D5EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB167D0-04A2-447D-942B-B9C20B997F5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
@@ -1152,29 +1152,6 @@
   </si>
   <si>
     <t>修正</t>
-  </si>
-  <si>
-    <t>Fix</t>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Repeated display names for activities</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\RepeatedActivitiyName.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>The names of the activities should give a clear idea of how it is being used. Although the default names usually provide a good description, sometimes they are too generic, so it is recommended to add more information when the context is not clear. This check looks for activities that have the same name, which might indicate that the same generic name is used multiple times. The check accepts an argument which is the threshold of how many activities can have the same name.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Check if it could be easier to understand what the activity does by adding a more descriptive title.</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>深過ぎるアクテビティ階層</t>
@@ -2112,7 +2089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2455,10 +2432,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D16" s="11">
         <v>4</v>
@@ -2467,10 +2444,10 @@
         <v>75</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="144">
@@ -2478,20 +2455,20 @@
         <v>48</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="144">
@@ -2499,20 +2476,20 @@
         <v>48</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="126">
@@ -2520,20 +2497,20 @@
         <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="162">
@@ -2541,53 +2518,32 @@
         <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="162">
-      <c r="A21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E21" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E20" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AAFB5-1AFF-48AE-9D08-6059D77D5EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15A25A2-6303-40B9-A371-B8D7CDC42F97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
@@ -1152,29 +1152,6 @@
   </si>
   <si>
     <t>修正</t>
-  </si>
-  <si>
-    <t>Fix</t>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Repeated display names for activities</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\RepeatedActivitiyName.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>The names of the activities should give a clear idea of how it is being used. Although the default names usually provide a good description, sometimes they are too generic, so it is recommended to add more information when the context is not clear. This check looks for activities that have the same name, which might indicate that the same generic name is used multiple times. The check accepts an argument which is the threshold of how many activities can have the same name.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Check if it could be easier to understand what the activity does by adding a more descriptive title.</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>深過ぎるアクテビティ階層</t>
@@ -1832,7 +1809,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
   </cellStyles>
@@ -2112,19 +2089,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.58203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2150,7 +2127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="90">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
@@ -2171,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="72">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -2192,7 +2169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="108">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -2213,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="126">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -2234,7 +2211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="126">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -2257,7 +2234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="126">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -2280,7 +2257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="180">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -2301,7 +2278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="180">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2322,7 +2299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="180">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2345,7 +2322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="180">
+    <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -2366,7 +2343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="108">
+    <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -2387,7 +2364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="54">
+    <row r="13" spans="1:7" ht="56.25">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -2408,7 +2385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54">
+    <row r="14" spans="1:7" ht="56.25">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2429,7 +2406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="54">
+    <row r="15" spans="1:7" ht="56.25">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -2450,144 +2427,123 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="108">
+    <row r="16" spans="1:7" ht="112.5">
       <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D16" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="144">
+    <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="144">
+    <row r="18" spans="1:7" ht="150">
       <c r="A18" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="126">
+    <row r="19" spans="1:7" ht="131.25">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="162">
+    <row r="20" spans="1:7" ht="168.75">
       <c r="A20" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="162">
-      <c r="A21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E21" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E20" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2602,14 +2558,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" customWidth="1"/>
-    <col min="7" max="7" width="40.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="5" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="49.875" customWidth="1"/>
+    <col min="7" max="7" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2635,7 +2591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="108">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15A25A2-6303-40B9-A371-B8D7CDC42F97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B81E2-27C1-4915-8DCE-B9ADDC5AA6E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,9 +1347,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\OpenApplicationBrowser.xaml</t>
-  </si>
-  <si>
     <t>「ブラウザーを開く（Open Browser）」は、ブラウザタブやウィンドウを開くのに適したアクテビティです。また、WEBオートメーションに関するアクテビティのコンテナの役割を果たします。そのため、ブラウザーに関する自動化を実装する場合は、 「アプリケーションを開く（Open Application）」 や 「プロセスを開始（Start Process）」の代わりに、「ブラウザーを開く（Open Browser）」を使用することを推奨します。</t>
     <rPh sb="39" eb="40">
       <t>ヒラ</t>
@@ -1641,6 +1638,10 @@
       <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\OpenBrowserNotUsed.xaml</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2091,7 +2092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2473,23 +2476,23 @@
     </row>
     <row r="18" spans="1:7" ht="150">
       <c r="A18" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="131.25">
@@ -2497,20 +2500,20 @@
         <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="168.75">
@@ -2518,20 +2521,20 @@
         <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B81E2-27C1-4915-8DCE-B9ADDC5AA6E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8D0D8-CCFF-4F29-9227-FEE6B97B8B87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
@@ -1641,6 +1641,10 @@
   </si>
   <si>
     <t>Checks\OpenBrowserNotUsed.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2092,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2132,7 +2136,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2152,8 +2156,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
-      <c r="A3" s="5" t="s">
-        <v>44</v>
+      <c r="A3" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2173,8 +2177,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
+      <c r="A4" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -2194,8 +2198,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
-      <c r="A5" s="5" t="s">
-        <v>44</v>
+      <c r="A5" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2215,8 +2219,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
-      <c r="A6" s="5" t="s">
-        <v>44</v>
+      <c r="A6" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2238,8 +2242,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
+      <c r="A7" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -2261,8 +2265,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
+      <c r="A8" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>49</v>
@@ -2282,8 +2286,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
-      <c r="A9" s="5" t="s">
-        <v>44</v>
+      <c r="A9" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>52</v>
@@ -2303,8 +2307,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
+      <c r="A10" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -2326,8 +2330,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="187.5">
-      <c r="A11" s="5" t="s">
-        <v>44</v>
+      <c r="A11" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2347,8 +2351,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="112.5">
-      <c r="A12" s="5" t="s">
-        <v>44</v>
+      <c r="A12" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>55</v>
@@ -2368,7 +2372,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="56.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2389,8 +2393,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="56.25">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
+      <c r="A14" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>60</v>
@@ -2410,8 +2414,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="56.25">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
+      <c r="A15" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>61</v>
@@ -2432,7 +2436,7 @@
     </row>
     <row r="16" spans="1:7" ht="112.5">
       <c r="A16" s="12" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>76</v>
@@ -2455,98 +2459,98 @@
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="150">
+    <row r="18" spans="1:7" ht="131.25">
       <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="131.25">
+    <row r="19" spans="1:7" ht="168.75">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="168.75">
+    <row r="20" spans="1:7" ht="150">
       <c r="A20" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E20" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16 A17:A20" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E17:E20" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8D0D8-CCFF-4F29-9227-FEE6B97B8B87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB44AC-087E-496D-BC48-83C718137CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
@@ -850,9 +850,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Checks\VariableMinimumScope\VariableMinimumScope.xaml</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1500,9 +1497,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\RepeatedActivitiyName.xaml</t>
-  </si>
-  <si>
     <t>アクテビティの表示名（Display name）は、その処理内容が把握できるように付けられるべきです。デフォルトの表示名で十分なケースもありますが、時にはデフォルトのままでは曖昧となってしまう場合もあります。そういった場合には、表示名に情報を追加することを推奨します。 このチェックは、同じ表示名を持つアクテビティを抽出し、引数として、何個のアクテビティまで同じ表示名を持ってもよいか定める閾値を設定することができます。その値を超えたアクテビティは、レポートに出力されます。</t>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
@@ -1644,8 +1638,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>Checks\RepeatedActivitiyName.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>Yes</t>
-    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2097,7 +2094,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2113,30 +2110,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
-      <c r="A2" s="5" t="s">
-        <v>96</v>
+      <c r="A2" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2146,7 +2143,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -2157,7 +2154,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2167,7 +2164,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -2178,7 +2175,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -2188,7 +2185,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2209,7 +2206,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2232,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -2255,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -2266,49 +2263,49 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -2320,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2341,7 +2338,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -2352,17 +2349,17 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>27</v>
@@ -2373,172 +2370,174 @@
     </row>
     <row r="13" spans="1:7" ht="56.25">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="56.25">
       <c r="A14" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56.25">
       <c r="A15" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="112.5">
       <c r="A16" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="11">
         <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="131.25">
       <c r="A18" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="168.75">
       <c r="A19" s="12" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="150">
       <c r="A20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2547,10 +2546,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16 A17:A20" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E17:E20" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E20" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2563,7 +2562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2577,25 +2578,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
@@ -2610,7 +2611,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB44AC-087E-496D-BC48-83C718137CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9B27B9-F2B3-4979-997C-E02A921E818B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
@@ -1254,9 +1254,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\UnusedVariables.xaml</t>
-  </si>
-  <si>
     <t>ワークフローには、実行時に必要な変数のみ含まれるべきです。未使用の変数が多くあると、ワークフローが理解しづらくなってしまうので、 削除することを推奨します。すべての未使用の変数を削除したい場合は、UiPath Studioの機能「未使用の変数を削除（Remove Unused Variables）」を利用してください。 (https://studio.uipath.com/lang-ja/docs/managing-variables#section-removing-variables)</t>
     <rPh sb="9" eb="11">
       <t>ジッコウ</t>
@@ -1638,11 +1635,91 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Checks\RepeatedActivitiyName.xaml</t>
+    <t>Yes</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>重複するワークフロー名</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メンテナンス時・デバッグ時のワークフローの混同を避けるため、１つのプロジェクト内のワークフロー名はそれぞれ重複を避けて固有の名称を付けるべきです。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ワークフロー名の重複を避け、固有の名称を付けてください。</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>空のThenブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ソラ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\EmptyThenBlock.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>条件分岐(If)アクティビティにおいては、常にThenブロックが使用されるように条件を設定することを推奨します。Thenブロックが空で、Elseブロック内で処理が実行されるワークフローは、読み手にとって理解しづらいことが多いです。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Thenブロックで処理が実行されるように条件を再定義してください。</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>サイテイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\UnusedVariables.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\RepeatedWorkflowName.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\RepeatedActivityName.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>Yes</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2091,11 +2168,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2133,7 +2208,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2154,7 +2229,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2175,7 +2250,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -2196,7 +2271,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2217,7 +2292,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2240,7 +2315,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -2263,7 +2338,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>48</v>
@@ -2284,7 +2359,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>51</v>
@@ -2305,7 +2380,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -2328,7 +2403,7 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2349,7 +2424,7 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
@@ -2391,7 +2466,7 @@
     </row>
     <row r="14" spans="1:7" ht="56.25">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
@@ -2412,7 +2487,7 @@
     </row>
     <row r="15" spans="1:7" ht="56.25">
       <c r="A15" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>60</v>
@@ -2433,7 +2508,7 @@
     </row>
     <row r="16" spans="1:7" ht="112.5">
       <c r="A16" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>75</v>
@@ -2456,55 +2531,55 @@
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="131.25">
       <c r="A18" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="168.75">
       <c r="A19" s="12" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
@@ -2513,10 +2588,10 @@
         <v>74</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="150">
@@ -2527,17 +2602,38 @@
         <v>79</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>82</v>
+    </row>
+    <row r="21" spans="1:7" ht="93.75">
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2546,10 +2642,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E20" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E21" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2560,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2620,11 +2716,35 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
+      <c r="A3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
       <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+      <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9B27B9-F2B3-4979-997C-E02A921E818B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BADCA2-FEE5-4975-B42F-DCA9995681A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -2170,7 +2170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2208,7 +2210,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2229,7 +2231,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2250,7 +2252,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -2271,7 +2273,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2292,7 +2294,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2315,7 +2317,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -2338,7 +2340,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>48</v>
@@ -2359,7 +2361,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>51</v>
@@ -2380,7 +2382,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -2403,7 +2405,7 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2424,7 +2426,7 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
@@ -2466,7 +2468,7 @@
     </row>
     <row r="14" spans="1:7" ht="56.25">
       <c r="A14" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
@@ -2487,7 +2489,7 @@
     </row>
     <row r="15" spans="1:7" ht="56.25">
       <c r="A15" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>60</v>
@@ -2508,7 +2510,7 @@
     </row>
     <row r="16" spans="1:7" ht="112.5">
       <c r="A16" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>75</v>
@@ -2531,7 +2533,7 @@
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>82</v>
@@ -2552,7 +2554,7 @@
     </row>
     <row r="18" spans="1:7" ht="131.25">
       <c r="A18" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>85</v>
@@ -2573,7 +2575,7 @@
     </row>
     <row r="19" spans="1:7" ht="168.75">
       <c r="A19" s="12" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>89</v>
@@ -2617,7 +2619,7 @@
     </row>
     <row r="21" spans="1:7" ht="93.75">
       <c r="A21" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>97</v>
@@ -2658,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BADCA2-FEE5-4975-B42F-DCA9995681A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FC2AE-BC57-453B-997B-1B3EA1324F2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
@@ -862,9 +862,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>注釈の無いデフォルトのクリック（Click）</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1715,10 +1712,6 @@
   </si>
   <si>
     <t>Checks\RepeatedActivityName.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Yes</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2170,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2187,30 +2180,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2220,7 +2213,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -2231,7 +2224,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2241,7 +2234,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -2252,7 +2245,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -2262,7 +2255,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -2273,7 +2266,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2283,7 +2276,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2294,7 +2287,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2306,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -2317,7 +2310,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -2329,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -2340,49 +2333,49 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -2394,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
@@ -2405,7 +2398,7 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -2415,7 +2408,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -2426,17 +2419,17 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>27</v>
@@ -2447,195 +2440,195 @@
     </row>
     <row r="13" spans="1:7" ht="56.25">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="56.25">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56.25">
       <c r="A15" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="112.5">
       <c r="A16" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="11">
         <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="131.25">
       <c r="A18" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="168.75">
       <c r="A19" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="150">
       <c r="A20" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="93.75">
       <c r="A21" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2660,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2676,25 +2669,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
@@ -2709,7 +2702,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
@@ -2720,23 +2713,23 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
       <c r="A3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FC2AE-BC57-453B-997B-1B3EA1324F2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9C6F7-70E4-48FB-9149-EE9BFE6B1812}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19410" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
@@ -798,67 +798,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\ProjectJsonConfigurationFile.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\MissingWorkflowAnnotation.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\MissingScreenshot.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedDelay.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\EmptyCatchBlock.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\VariableNamingConvention.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\ArgumentNamingConvention.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedDefaultClick.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UnnecessarySequenceOrFlowchart.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedUnreachableActivities.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\LargeIdxInSelector.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedDefaultType.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Yes</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\VariableMinimumScope\VariableMinimumScope.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\VariableOverridesVariable.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\VariableOverridesArgument.xaml</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1158,9 +1098,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\DeeplyNestedActivities.xaml</t>
-  </si>
-  <si>
     <t>アクテビティの階層が深過ぎると、ワークフローを理解するのが難しくなるため、階層が深くならないように実装することを推奨します。階層が深くなりそうな場合は、ワークフローを複数の小さなワークフローに分割して、それらを ワークフローファイルを呼び出し（Invoke Workflow File）アクテビティで呼び出すと良いかもしれません。</t>
     <rPh sb="7" eb="9">
       <t>カイソウ</t>
@@ -1404,9 +1341,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\HotkeyWithoutSelector.xaml</t>
-  </si>
-  <si>
     <t>セレクターの無い「ホットキーを押下（Send Hotkey）」アクテビティは、 最前面に想定外のアプリケーションが表示された場合（例：ウィンドウズ通知 ・ウイルスソフトのポップアップ）、想定した挙動とならないことがあります。 そのため、セレクターを使用するか、セレクターを含むコンテナ（例：「ウィンドウにアタッチ」「ブラウザーにアタッチ」）内で使用することを推奨します。</t>
     <rPh sb="6" eb="7">
       <t>ナ</t>
@@ -1628,10 +1562,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\OpenBrowserNotUsed.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Yes</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1679,39 +1609,103 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\EmptyThenBlock.xaml</t>
+    <t>No</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>条件分岐(If)アクティビティにおいては、常にThenブロックが使用されるように条件を設定することを推奨します。Thenブロックが空で、Elseブロック内で処理が実行されるワークフローは、読み手にとって理解しづらいことが多いです。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Thenブロックで処理が実行されるように条件を再定義してください。</t>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>サイテイギ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UnusedVariables.xaml</t>
+    <t>条件分岐(If)・フロー条件分岐（FlowDecision）アクティビティにおいては、常にThenブロック・True分岐が使用されるように条件設定することを推奨します。Thenブロック・True分岐が空で、Elseブロック内・False分岐で処理が実行されるワークフローは、読み手にとって理解しづらいものとなります。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Thenブロック（フロー条件分岐の場合はTrue分岐）で処理が実行されるように条件を設定してください。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\MissingWorkflowAnnotation.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\MissingScreenshot.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedDelay.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\EmptyCatchBlock.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\VariableNamingConvention.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\ArgumentNamingConvention.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedDefaultClick.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedDefaultType.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\LargeIdxInSelector.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UnnecessarySequenceOrFlowchart.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedUnreachableActivities.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Custom\VariableMinimumScope\VariableMinimumScope.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Custom\VariableOverridesVariable.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Custom\VariableOverridesArgument.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\DeeplyNestedActivities.xaml</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Checks\RepeatedWorkflowName.xaml</t>
+    <t>Checks\Standard\OpenBrowserNotUsed.xaml</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Checks\RepeatedActivityName.xaml</t>
+    <t>Checks\Standard\HotkeyWithoutSelector.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\Standard\RepeatedActivityName.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UnusedVariables.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\Standard\EmptyThenBlock.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\Standard\ProjectJsonConfigurationFile.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\RepeatedWorkflowName.xaml</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2163,9 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2180,40 +2172,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -2224,17 +2216,17 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -2245,17 +2237,17 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -2266,17 +2258,17 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -2287,19 +2279,19 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -2310,19 +2302,19 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -2333,61 +2325,61 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
@@ -2398,17 +2390,17 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -2419,17 +2411,17 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>27</v>
@@ -2438,210 +2430,210 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="56.25">
+    <row r="13" spans="1:7" ht="112.5">
       <c r="A13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="150">
+      <c r="A14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="131.25">
+      <c r="A15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="168.75">
+      <c r="A16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="56.25">
-      <c r="A14" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="56.25">
-      <c r="A15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="112.5">
-      <c r="A16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="11">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="131.25">
+    <row r="18" spans="1:7" ht="112.5">
       <c r="A18" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="168.75">
+    <row r="19" spans="1:7" ht="75">
       <c r="A19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="150">
+    <row r="20" spans="1:7" ht="56.25">
       <c r="A20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="93.75">
+    <row r="21" spans="1:7" ht="56.25">
       <c r="A21" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>99</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E18" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+      <formula1>"Fix, Double check"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E19:E21" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E21" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
-      <formula1>"Fix, Double check"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,7 +2646,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2669,40 +2661,40 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
@@ -2713,23 +2705,23 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
       <c r="A3" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9C6F7-70E4-48FB-9149-EE9BFE6B1812}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64FAA33-C227-4D47-8D0C-7250E9B63141}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19410" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
-  <si>
-    <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)</t>
-    <phoneticPr fontId="5"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1706,6 +1698,34 @@
   </si>
   <si>
     <t>Checks\Standard\RepeatedWorkflowName.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(dt_)*([A-Z][a-z0-9]*)+$)"
+}</t>
+  </si>
+  <si>
+    <t>{
+"Threshold" : "2"
+}</t>
+  </si>
+  <si>
+    <t>{
+"Threshold" : "10"
+}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{
+"Threshold" : "1"
+}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)"
+}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2172,455 +2192,455 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="112.5">
       <c r="A13" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="11">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="150">
       <c r="A14" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="131.25">
       <c r="A15" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="168.75">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="112.5">
       <c r="A18" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="75">
       <c r="A19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25">
       <c r="A20" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.25">
       <c r="A21" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2661,67 +2681,67 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
       <c r="A3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64FAA33-C227-4D47-8D0C-7250E9B63141}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD6391-1B14-4C11-86B1-69053A346F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19410" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="19" spans="1:7" ht="75">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD6391-1B14-4C11-86B1-69053A346F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1678EEB5-976E-4162-915B-BBCDF4B5AC3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1599,10 +1599,6 @@
       <t>ソラ</t>
     </rPh>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>条件分岐(If)・フロー条件分岐（FlowDecision）アクティビティにおいては、常にThenブロック・True分岐が使用されるように条件設定することを推奨します。Thenブロック・True分岐が空で、Elseブロック内・False分岐で処理が実行されるワークフローは、読み手にとって理解しづらいものとなります。</t>
@@ -1727,6 +1723,12 @@
 "NamingPattern" : "(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)"
 }</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2221,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
@@ -2242,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -2263,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -2284,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -2305,10 +2309,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>52</v>
@@ -2328,10 +2332,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>52</v>
@@ -2351,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -2372,7 +2376,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -2393,10 +2397,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2416,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
@@ -2437,7 +2441,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -2458,10 +2462,10 @@
         <v>57</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>56</v>
@@ -2481,7 +2485,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
@@ -2502,7 +2506,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
@@ -2517,16 +2521,16 @@
     </row>
     <row r="16" spans="1:7" ht="168.75">
       <c r="A16" s="12" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>56</v>
@@ -2540,13 +2544,13 @@
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -2567,28 +2571,28 @@
         <v>76</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="75">
       <c r="A19" s="12" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -2609,7 +2613,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -2630,7 +2634,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -2710,7 +2714,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
@@ -2731,7 +2735,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1678EEB5-976E-4162-915B-BBCDF4B5AC3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4837D9-B7D5-49F6-BA24-AC6EDEBD79B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -790,10 +790,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>注釈の無いデフォルトのクリック（Click）</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1554,10 +1550,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>重複するワークフロー名</t>
     <rPh sb="0" eb="2">
       <t>ジュウフク</t>
@@ -1678,10 +1670,6 @@
   </si>
   <si>
     <t>Checks\Standard\RepeatedActivityName.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Checks\Standard\UnusedVariables.xaml</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1725,10 +1713,16 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>No</t>
+    <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2179,9 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2196,40 +2188,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -2240,17 +2232,17 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -2261,17 +2253,17 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
@@ -2282,17 +2274,17 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2295,19 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -2326,19 +2318,19 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -2349,61 +2341,61 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -2414,17 +2406,17 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
@@ -2435,17 +2427,17 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -2456,195 +2448,195 @@
     </row>
     <row r="13" spans="1:7" ht="112.5">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="150">
       <c r="A14" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="131.25">
       <c r="A15" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="168.75">
       <c r="A16" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="112.5">
       <c r="A18" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="75">
       <c r="A19" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25">
       <c r="A20" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.25">
       <c r="A21" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2669,9 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2685,40 +2675,40 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -2729,23 +2719,23 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
       <c r="A3" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4837D9-B7D5-49F6-BA24-AC6EDEBD79B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD3227E-E7C3-4CC2-948B-3F1DD42FD953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1723,6 +1723,96 @@
   <si>
     <t>Yes</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Undocumented Parallel activity</t>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedParallelActivity.xaml</t>
+  </si>
+  <si>
+    <t>Using the Parallel activity can make the workflow harder to understand and might lead to unexpected results when combined with UI interactions. If it is necessary to use the Parallel activity, include an annotation to explain the situation.
+For more about the Parallel activity, please refer to https://docs.microsoft.com/en-us/dotnet/api/system.activities.statements.parallel?view=netframework-4.8</t>
+  </si>
+  <si>
+    <t>Verify whether the Parallel activity is really necessary and, if it is, include an annotation explaning why it is being used.</t>
+  </si>
+  <si>
+    <t>Hardcoded password</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Passwords should be stored in secure locations, like Orchestrator or Windows Credential Manager.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Passwords that are hardcoded into workflows can be a serious security threat since they can be easily recovered by unauthorized parties. For more about protecting sensitive data, please refer to https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\Standard\HardcodedPassword.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Undocumented Image-based activities</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\Standard\UndocumentedImageBasedActivities.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>The use of image-based activities (e.g., Click Image and Wait Image Vanish) is not usually recommended, because they are sensitive to screen resolutions and image quality.
+In cases they must be used, it is a good practice to include an annotation to the activity to explain the situation.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Confirm whether image-based activities are really necessary and, if they are, add an annotation to explain the situation.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Workflow naming convention</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "^[A-Z0-9]{7}_[0-9]{3}_.*$"
+}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflows in a project should be named according to the project's naming conventions.  This check receives a regular expression that dictates the naming convention for workflow files. </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Custom\WorkflowFileNamingConvention.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Change the name of the file to match the project's naming conventions.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Mandatory files in project</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Custom\MandatoryFilesInProject.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>The project should contain mandatory files specified by the COE or project leader. This check receives a list of files that should be in the project folder.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Include the mandatory files in the project folder.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>{
+  "MandatoryFiles": "Data\\Config.xlsx,Framework\\CloseAllApplications.xaml,Framework\\GetAppCredentials.xaml,Framework\\GetTransactionData.xaml,Framework\\InitAllApplications.xaml,Framework\\InitAllSettings.xaml,Framework\\KillAllProcesses.xaml,Framework\\SetTransactionStatus.xaml,Framework\\TakeScreenshot.xaml,Main.xaml,Process.xaml"
+}</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1851,7 +1941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1887,6 +1977,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2171,9 +2264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2576,79 +2671,165 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="75">
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="168.75">
       <c r="A19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="B19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
+      <c r="F19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="56.25">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="112.5">
       <c r="A20" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>44</v>
+      <c r="B20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="56.25">
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="131.25">
       <c r="A21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="75">
+      <c r="A22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75">
+      <c r="A23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="56.25">
+      <c r="A24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="56.25">
+      <c r="A25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E18" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E19:E21" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E25" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2659,9 +2840,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2738,14 +2921,40 @@
         <v>73</v>
       </c>
     </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="262.5">
+      <c r="A4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{17BA02FB-83C0-4B44-8ABF-D63FDA63E81F}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+      <formula1>"修正, 確認"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD3227E-E7C3-4CC2-948B-3F1DD42FD953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CDE96-30CD-440D-92EA-84A466315393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1725,54 +1725,15 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Undocumented Parallel activity</t>
-  </si>
-  <si>
     <t>Checks\Standard\UndocumentedParallelActivity.xaml</t>
-  </si>
-  <si>
-    <t>Using the Parallel activity can make the workflow harder to understand and might lead to unexpected results when combined with UI interactions. If it is necessary to use the Parallel activity, include an annotation to explain the situation.
-For more about the Parallel activity, please refer to https://docs.microsoft.com/en-us/dotnet/api/system.activities.statements.parallel?view=netframework-4.8</t>
-  </si>
-  <si>
-    <t>Verify whether the Parallel activity is really necessary and, if it is, include an annotation explaning why it is being used.</t>
-  </si>
-  <si>
-    <t>Hardcoded password</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Passwords should be stored in secure locations, like Orchestrator or Windows Credential Manager.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Passwords that are hardcoded into workflows can be a serious security threat since they can be easily recovered by unauthorized parties. For more about protecting sensitive data, please refer to https://docs.uipath.com/studio/docs/protecting-sensitive-information</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Checks\Standard\HardcodedPassword.xaml</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Undocumented Image-based activities</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Checks\Standard\UndocumentedImageBasedActivities.xaml</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>The use of image-based activities (e.g., Click Image and Wait Image Vanish) is not usually recommended, because they are sensitive to screen resolutions and image quality.
-In cases they must be used, it is a good practice to include an annotation to the activity to explain the situation.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Confirm whether image-based activities are really necessary and, if they are, add an annotation to explain the situation.</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Workflow naming convention</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>{ 
@@ -1781,31 +1742,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t xml:space="preserve">Workflows in a project should be named according to the project's naming conventions.  This check receives a regular expression that dictates the naming convention for workflow files. </t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Checks\Custom\WorkflowFileNamingConvention.xaml</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Change the name of the file to match the project's naming conventions.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Mandatory files in project</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Checks\Custom\MandatoryFilesInProject.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>The project should contain mandatory files specified by the COE or project leader. This check receives a list of files that should be in the project folder.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Include the mandatory files in the project folder.</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1813,6 +1754,68 @@
   "MandatoryFiles": "Data\\Config.xlsx,Framework\\CloseAllApplications.xaml,Framework\\GetAppCredentials.xaml,Framework\\GetTransactionData.xaml,Framework\\InitAllApplications.xaml,Framework\\InitAllSettings.xaml,Framework\\KillAllProcesses.xaml,Framework\\SetTransactionStatus.xaml,Framework\\TakeScreenshot.xaml,Main.xaml,Process.xaml"
 }</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>注釈のないパラレルアクティビティ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パラレルアクティビティの利用はワークフローの理解しづらくなり、想定外の結果となることがあります。利用が必要な場合は、その理由を説明する注釈を追加してください。パラレルアクティビティについての詳細はこちらを参照ください。
+https://docs.microsoft.com/ja-jp/dotnet/api/system.activities.statements.parallel?view=netframework-4.8</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パラレルアクティビティの利用が本当に必要か確認してください。必要な場合は、その理由を注釈に記載してください。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワードのハードコーディング</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハードコードされたパスワードは、想定外の第三者が容易に読み取ることができるためセキュリティ上重大な問題となることがあります。データ保護についての詳細はこちらを参照ください。
+https://docs.uipath.com/studio/lang-ja/docs/protecting-sensitive-information</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワードは、OrchestratorやWindows Credential Manager のようなより安全な場所に格納してください。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>注釈のない画像ベースのアクティビティ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像ベースのアクティビティの利用は、挙動の安定性が画素数や画質に依存してしまうため推奨しておりません。利用が必要な場合は、注釈を記載してください。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像ベースのアクティビティの利用が本当に必要か確認してください。必要な場合は、理由を説明する注釈を記載してください。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ワークフローの命名規則</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ワークフローの命名はプロジェクトで定められた規則に従うべきです。このチェックでは、引数に記載する正規表現によってワークフローの命名規則を定義できます。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ワークフローファイル名を命名規則に従うように修正してください。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロジェクトの必須ファイル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>必ず含まれてなければならない必須ファイルがCoEにより定義されていることがあります。このチェックは、引数で定義された必須ファイルが含まれているかどうか確認します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロジェクトフォルダに必須ファイルを追加してください。</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2266,9 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
@@ -2671,25 +2672,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="168.75">
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="150">
       <c r="A19" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="112.5">
@@ -2697,41 +2698,41 @@
         <v>104</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="131.25">
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="56.25">
       <c r="A21" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="75">
@@ -2739,22 +2740,22 @@
         <v>104</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="75">
@@ -2842,9 +2843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2926,22 +2925,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CDE96-30CD-440D-92EA-84A466315393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951F962-11F0-4694-A38A-F41A92757848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1642,18 +1642,6 @@
   </si>
   <si>
     <t>Checks\Standard\UndocumentedUnreachableActivities.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\Custom\VariableMinimumScope\VariableMinimumScope.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\Custom\VariableOverridesVariable.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\Custom\VariableOverridesArgument.xaml</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1816,6 +1804,21 @@
   <si>
     <t>プロジェクトフォルダに必須ファイルを追加してください。</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\VariableMinimumScope\VariableMinimumScope.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\VariableOverridesVariable.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\VariableOverridesArgument.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -2328,7 +2331,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2391,7 +2394,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -2400,7 +2403,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>51</v>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2423,7 +2426,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>51</v>
@@ -2437,7 +2440,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>32</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
@@ -2488,7 +2491,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>54</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -2523,7 +2526,7 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -2544,16 +2547,16 @@
     </row>
     <row r="13" spans="1:7" ht="112.5">
       <c r="A13" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>55</v>
@@ -2567,13 +2570,13 @@
     </row>
     <row r="14" spans="1:7" ht="150">
       <c r="A14" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
@@ -2588,13 +2591,13 @@
     </row>
     <row r="15" spans="1:7" ht="131.25">
       <c r="A15" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
@@ -2609,16 +2612,16 @@
     </row>
     <row r="16" spans="1:7" ht="168.75">
       <c r="A16" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>55</v>
@@ -2632,13 +2635,13 @@
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -2653,13 +2656,13 @@
     </row>
     <row r="18" spans="1:7" ht="112.5">
       <c r="A18" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
@@ -2674,151 +2677,151 @@
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" ht="150">
       <c r="A19" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="112.5">
       <c r="A20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" ht="56.25">
       <c r="A21" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="75">
+    <row r="22" spans="1:7" ht="75">
       <c r="A22" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="75">
+    <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56.25">
       <c r="A24" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="56.25">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="75">
       <c r="A25" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2827,10 +2830,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E25" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E21 E22:E25" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21 A22:A25" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2880,13 +2883,13 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
@@ -2901,13 +2904,13 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
@@ -2922,25 +2925,25 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="262.5">
       <c r="A4" s="12" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951F962-11F0-4694-A38A-F41A92757848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1951F962-11F0-4694-A38A-F41A92757848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12B15F23-2E2E-4FC7-88EB-7B5852927513}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1761,64 +1761,70 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ハードコードされたパスワードは、想定外の第三者が容易に読み取ることができるためセキュリティ上重大な問題となることがあります。データ保護についての詳細はこちらを参照ください。
+    <t>パスワードは、OrchestratorやWindows Credential Manager のようなより安全な場所に格納してください。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>注釈のない画像ベースのアクティビティ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像ベースのアクティビティの利用は、挙動の安定性が画素数や画質に依存してしまうため推奨しておりません。利用が必要な場合は、注釈を記載してください。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像ベースのアクティビティの利用が本当に必要か確認してください。必要な場合は、理由を説明する注釈を記載してください。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ワークフローの命名規則</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ワークフローの命名はプロジェクトで定められた規則に従うべきです。このチェックでは、引数に記載する正規表現によってワークフローの命名規則を定義できます。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ワークフローファイル名を命名規則に従うように修正してください。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロジェクトの必須ファイル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>必ず含まれてなければならない必須ファイルがCoEにより定義されていることがあります。このチェックは、引数で定義された必須ファイルが含まれているかどうか確認します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロジェクトフォルダに必須ファイルを追加してください。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\VariableMinimumScope\VariableMinimumScope.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\VariableOverridesVariable.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\Standard\VariableOverridesArgument.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>{
+  "Attributes: "Password"
+}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハードコードされたパスワードは、想定外の第三者が容易に読み取ることができるためセキュリティ上重大な問題となることがあります。このチェックは、ハードコードされているかどうかをチェックする属性のリストを受け取ります。データ保護についての詳細はこちらを参照ください。
 https://docs.uipath.com/studio/lang-ja/docs/protecting-sensitive-information</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>パスワードは、OrchestratorやWindows Credential Manager のようなより安全な場所に格納してください。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>注釈のない画像ベースのアクティビティ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>画像ベースのアクティビティの利用は、挙動の安定性が画素数や画質に依存してしまうため推奨しておりません。利用が必要な場合は、注釈を記載してください。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>画像ベースのアクティビティの利用が本当に必要か確認してください。必要な場合は、理由を説明する注釈を記載してください。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ワークフローの命名規則</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ワークフローの命名はプロジェクトで定められた規則に従うべきです。このチェックでは、引数に記載する正規表現によってワークフローの命名規則を定義できます。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ワークフローファイル名を命名規則に従うように修正してください。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プロジェクトの必須ファイル</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>必ず含まれてなければならない必須ファイルがCoEにより定義されていることがあります。このチェックは、引数で定義された必須ファイルが含まれているかどうか確認します。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プロジェクトフォルダに必須ファイルを追加してください。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\Standard\VariableMinimumScope\VariableMinimumScope.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\Standard\VariableOverridesVariable.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\Standard\VariableOverridesArgument.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1996,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{FACCEB44-97B3-401B-BD48-08626DAD862C}"/>
   </cellStyles>
@@ -2272,17 +2278,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.58203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2308,7 +2316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="90">
       <c r="A2" s="12" t="s">
         <v>101</v>
       </c>
@@ -2329,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="72">
       <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
@@ -2350,7 +2358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="108">
       <c r="A4" s="12" t="s">
         <v>101</v>
       </c>
@@ -2371,7 +2379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="126">
       <c r="A5" s="12" t="s">
         <v>101</v>
       </c>
@@ -2392,7 +2400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="126">
       <c r="A6" s="12" t="s">
         <v>101</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="126">
       <c r="A7" s="12" t="s">
         <v>101</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="180">
       <c r="A8" s="12" t="s">
         <v>101</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="180">
       <c r="A9" s="12" t="s">
         <v>101</v>
       </c>
@@ -2480,7 +2488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="180">
       <c r="A10" s="12" t="s">
         <v>101</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="187.5">
+    <row r="11" spans="1:7" ht="180">
       <c r="A11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="112.5">
+    <row r="12" spans="1:7" ht="108">
       <c r="A12" s="12" t="s">
         <v>101</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="112.5">
+    <row r="13" spans="1:7" ht="108">
       <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="150">
+    <row r="14" spans="1:7" ht="144">
       <c r="A14" s="12" t="s">
         <v>101</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="131.25">
+    <row r="15" spans="1:7" ht="126">
       <c r="A15" s="12" t="s">
         <v>101</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="168.75">
+    <row r="16" spans="1:7" ht="162">
       <c r="A16" s="12" t="s">
         <v>101</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="150">
+    <row r="17" spans="1:7" ht="144">
       <c r="A17" s="12" t="s">
         <v>101</v>
       </c>
@@ -2654,7 +2662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="112.5">
+    <row r="18" spans="1:7" ht="108">
       <c r="A18" s="12" t="s">
         <v>101</v>
       </c>
@@ -2675,7 +2683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="150">
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="144">
       <c r="A19" s="12" t="s">
         <v>101</v>
       </c>
@@ -2696,7 +2704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="112.5">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="126">
       <c r="A20" s="12" t="s">
         <v>101</v>
       </c>
@@ -2706,23 +2714,25 @@
       <c r="C20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="E20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="56.25">
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="54">
       <c r="A21" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>105</v>
@@ -2732,13 +2742,13 @@
         <v>55</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="22" spans="1:7" ht="75">
+    <row r="22" spans="1:7" ht="72">
       <c r="A22" s="12" t="s">
         <v>101</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -2759,7 +2769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="56.25">
+    <row r="23" spans="1:7" ht="54">
       <c r="A23" s="12" t="s">
         <v>101</v>
       </c>
@@ -2767,7 +2777,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -2780,7 +2790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25">
+    <row r="24" spans="1:7" ht="54">
       <c r="A24" s="12" t="s">
         <v>101</v>
       </c>
@@ -2788,7 +2798,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -2801,12 +2811,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="75">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="72">
       <c r="A25" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>107</v>
@@ -2818,10 +2828,10 @@
         <v>51</v>
       </c>
       <c r="F25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2846,16 +2856,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="49.875" customWidth="1"/>
-    <col min="7" max="7" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2881,7 +2893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="108">
       <c r="A2" s="5" t="s">
         <v>102</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="54">
       <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
@@ -2923,12 +2935,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="262.5">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="252">
       <c r="A4" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>108</v>
@@ -2940,10 +2952,10 @@
         <v>51</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1951F962-11F0-4694-A38A-F41A92757848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12B15F23-2E2E-4FC7-88EB-7B5852927513}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{1951F962-11F0-4694-A38A-F41A92757848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08C047A5-CDED-497D-9C63-BF1A0FD1CF0E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="640" windowWidth="14540" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -1816,14 +1816,14 @@
     <t>No</t>
   </si>
   <si>
-    <t>{
-  "Attributes: "Password"
-}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ハードコードされたパスワードは、想定外の第三者が容易に読み取ることができるためセキュリティ上重大な問題となることがあります。このチェックは、ハードコードされているかどうかをチェックする属性のリストを受け取ります。データ保護についての詳細はこちらを参照ください。
 https://docs.uipath.com/studio/lang-ja/docs/protecting-sensitive-information</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{
+"Attributes": "Password"
+}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2278,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -2715,13 +2715,13 @@
         <v>104</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>114</v>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951F962-11F0-4694-A38A-F41A92757848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3C180-4538-4B88-B801-26CD00689CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1705,14 +1705,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Checks\Standard\UndocumentedParallelActivity.xaml</t>
   </si>
   <si>
@@ -1819,6 +1811,42 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Unallowed activity</t>
+  </si>
+  <si>
+    <t>Checks\Custom\UnallowedActivity.xaml</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Remove the activity or request its addition to the activities whitelist (or its removal from the activities blacklist).</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"WhiteList" : "",
+"BlackList": "UnallowedActivity01,UnallowedActivity02,UnallowedActivity03"
+} </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Workflows should contain only activities allowed by the Centre of Excellence (COE). If an activity is present in the blacklist or is not present in the whitelist, it should not be used. The whitelist and the blacklist are passed as arguments to this check, and they contain names of activities as specified by the last part of their class name (for example, "Sequence" instead of "System.Activities.Statements.Sequence" and "SetCredential" instead of "UiPath.Core.Activities.SetCredential"). The class name of an activity can be found at the top of the Properties panel in UiPath Studio.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2270,7 +2298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2310,7 +2338,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A2" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -2331,7 +2359,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
       <c r="A3" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2352,7 +2380,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A4" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2373,7 +2401,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A5" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2394,7 +2422,7 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A6" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -2417,7 +2445,7 @@
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
       <c r="A7" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2440,7 +2468,7 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A8" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -2461,7 +2489,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
       <c r="A9" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>32</v>
@@ -2482,7 +2510,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
       <c r="A10" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
@@ -2505,7 +2533,7 @@
     </row>
     <row r="11" spans="1:7" ht="187.5">
       <c r="A11" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -2526,7 +2554,7 @@
     </row>
     <row r="12" spans="1:7" ht="112.5">
       <c r="A12" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -2547,7 +2575,7 @@
     </row>
     <row r="13" spans="1:7" ht="112.5">
       <c r="A13" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>56</v>
@@ -2570,7 +2598,7 @@
     </row>
     <row r="14" spans="1:7" ht="150">
       <c r="A14" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>62</v>
@@ -2591,7 +2619,7 @@
     </row>
     <row r="15" spans="1:7" ht="131.25">
       <c r="A15" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>65</v>
@@ -2612,7 +2640,7 @@
     </row>
     <row r="16" spans="1:7" ht="168.75">
       <c r="A16" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>68</v>
@@ -2635,7 +2663,7 @@
     </row>
     <row r="17" spans="1:7" ht="150">
       <c r="A17" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>59</v>
@@ -2656,7 +2684,7 @@
     </row>
     <row r="18" spans="1:7" ht="112.5">
       <c r="A18" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>74</v>
@@ -2677,76 +2705,76 @@
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" ht="150">
       <c r="A19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1" ht="112.5">
       <c r="A20" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" ht="56.25">
       <c r="A21" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="75">
       <c r="A22" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -2761,13 +2789,13 @@
     </row>
     <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -2782,13 +2810,13 @@
     </row>
     <row r="24" spans="1:7" ht="56.25">
       <c r="A24" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -2801,27 +2829,50 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="75">
+    <row r="25" spans="1:7" ht="225">
       <c r="A25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="75">
+      <c r="A26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2830,10 +2881,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E21 E22:E25" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E26" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21 A22:A25" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2883,7 +2934,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
@@ -2904,7 +2955,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
       <c r="A3" s="12" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>71</v>
@@ -2925,25 +2976,25 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="262.5">
       <c r="A4" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3C180-4538-4B88-B801-26CD00689CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472CBB1-C13F-4E80-9A62-A6CEC8CD3909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="141">
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
     <rPh sb="0" eb="3">
@@ -1842,6 +1842,26 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Log browser URL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Checks\Custom\LogBrowserURL.xaml</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Add a Log Message activity immediately before or immediately after Open Browser and log the URL used in the Open Browser activity.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>To have more visibility on what is accessed by robots, a Log Message activity should be used immediately before or immediately after an Open Browser activity to log the URL being used in the Open Browser activity.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2298,7 +2318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2852,26 +2872,47 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="75">
+    <row r="26" spans="1:7" ht="75">
       <c r="A26" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="75">
+      <c r="A27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2881,10 +2922,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{589AC006-87F2-4299-AC58-9EC758319A73}">
       <formula1>"Fix, Double check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E26" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E20:E27" xr:uid="{6CC92C5C-67A3-465A-9410-BA22611AEE61}">
       <formula1>"修正, 確認"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A27" xr:uid="{D6548621-3B12-46F1-AA74-303D6C198CDC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2934,7 +2975,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>

--- a/Config/JP/Checklist.xlsx
+++ b/Config/JP/Checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951F962-11F0-4694-A38A-F41A92757848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E0D44-98D1-4A25-A5A2-D6730432D755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -349,76 +349,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>変数の命名は、ワークフローの保守性を維持するため、指定された命名規則を守る必要があります。こちらのチェックは、正規表現を引数として受け取り、それを守っているかどうかを確認する機能となります。命名規則に関してはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/workflow-design#section-naming-conventions</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>メイメイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホシュ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>メイメイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キソク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>マモ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>セイキ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>マモ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>メイメイ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>キソク</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>引数の命名は、ワークフローの保守性を維持するため、指定された命名規則を守る必要があります。こちらのチェックは、正規表現を引数として受け取り、それを守っているかどうかを確認する機能となります。命名規則に関してはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/workflow-design#section-naming-conventions</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -1671,11 +1601,6 @@
   <si>
     <t>Checks\Standard\RepeatedWorkflowName.xaml</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{ 
-"NamingPattern" : "(^(dt_)*([A-Z][a-z0-9]*)+$)"
-}</t>
   </si>
   <si>
     <t>{
@@ -1695,12 +1620,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>{ 
-"NamingPattern" : "(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)"
-}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Checks\Standard\UnusedVariables\UnusedVariables.xaml</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1721,12 +1640,6 @@
   </si>
   <si>
     <t>Checks\Standard\UndocumentedImageBasedActivities.xaml</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{ 
-"NamingPattern" : "^[A-Z0-9]{7}_[0-9]{3}_.*$"
-}</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1819,6 +1732,24 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>変数の命名は、ワークフローの保守性を維持するため、指定された命名規則を守る必要があります。こちらのチェックは、正規表現を引数として受け取り、それを守っているかどうかを確認する機能となります。命名規則に関してはこちらのページで紹介されています。 https://studio.uipath.com/lang-ja/docs/workflow-design#section-naming-conventions</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(dt_)?([A-Z][a-z0-9]*)+$)"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "(^(in_|out_|io_)(dt_)?([A-Z][a-z0-9]*)+)"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+"NamingPattern" : "^[A-Z0-9]{7}_[0-9]{3}_.*$"
+}</t>
   </si>
 </sst>
 </file>
@@ -1829,14 +1760,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1844,7 +1775,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1852,7 +1783,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1860,28 +1791,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2272,55 +2203,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="28.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.6328125" style="1"/>
+    <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="93.75">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A2" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -2329,19 +2262,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="93.75">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="72.5">
       <c r="A3" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -2350,19 +2283,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="112.5">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A4" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
@@ -2371,19 +2304,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="116">
       <c r="A5" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
@@ -2392,436 +2325,436 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A6" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="131.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="101.5">
       <c r="A7" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="159.5">
+      <c r="A8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="187.5">
-      <c r="A8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="159.5">
+      <c r="A9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="187.5">
-      <c r="A9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="206.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="159.5">
       <c r="A10" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="159.5">
+      <c r="A11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="187.5">
-      <c r="A11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="112.5">
+    <row r="12" spans="1:7" ht="101.5">
       <c r="A12" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="116">
+      <c r="A13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="112.5">
-      <c r="A13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="10" t="s">
+    <row r="14" spans="1:7" ht="130.5">
+      <c r="A14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="150">
-      <c r="A14" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="130.5">
+      <c r="A15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="131.25">
-      <c r="A15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="159.5">
+      <c r="A16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="C16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="168.75">
-      <c r="A16" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="10" t="s">
+    <row r="17" spans="1:7" ht="130.5">
+      <c r="A17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="150">
-      <c r="A17" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="B17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="18" spans="1:7" ht="112.5">
+    <row r="18" spans="1:7" ht="87">
       <c r="A18" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="150">
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="116">
       <c r="A19" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="112.5">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="87">
       <c r="A20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="56.25">
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="58">
       <c r="A21" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="75">
+    <row r="22" spans="1:7" ht="58">
       <c r="A22" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="23" spans="1:7" ht="56.25">
+    <row r="23" spans="1:7" ht="58">
       <c r="A23" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25">
+    <row r="24" spans="1:7" ht="43.5">
       <c r="A24" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="75">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="58">
       <c r="A25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2846,104 +2779,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="49.875" customWidth="1"/>
-    <col min="7" max="7" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="5" width="28.36328125" customWidth="1"/>
+    <col min="6" max="6" width="49.90625" customWidth="1"/>
+    <col min="7" max="7" width="40.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="112.5">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="87">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="56.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="58">
       <c r="A3" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="262.5">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="203">
       <c r="A4" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
